--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Washington_Wizards__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Washington_Wizards__.xlsx
@@ -588,79 +588,79 @@
         <v>26</v>
       </c>
       <c r="D2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>853</v>
+      </c>
+      <c r="G2" t="n">
+        <v>128</v>
+      </c>
+      <c r="H2" t="n">
+        <v>301</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="J2" t="n">
+        <v>54</v>
+      </c>
+      <c r="K2" t="n">
+        <v>152</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="M2" t="n">
+        <v>74</v>
+      </c>
+      <c r="N2" t="n">
+        <v>149</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>56</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="T2" t="n">
         <v>25</v>
       </c>
-      <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>814</v>
-      </c>
-      <c r="G2" t="n">
-        <v>120</v>
-      </c>
-      <c r="H2" t="n">
-        <v>283</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="J2" t="n">
-        <v>50</v>
-      </c>
-      <c r="K2" t="n">
-        <v>142</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>141</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.496</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>32</v>
-      </c>
-      <c r="R2" t="n">
-        <v>49</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="T2" t="n">
-        <v>21</v>
-      </c>
       <c r="U2" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="V2" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W2" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
         <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AA2" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>322</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>786</v>
+        <v>828</v>
       </c>
       <c r="G3" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H3" t="n">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="I3" t="n">
-        <v>0.437</v>
+        <v>0.441</v>
       </c>
       <c r="J3" t="n">
         <v>34</v>
       </c>
       <c r="K3" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L3" t="n">
-        <v>0.266</v>
+        <v>0.262</v>
       </c>
       <c r="M3" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="N3" t="n">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="O3" t="n">
-        <v>0.51</v>
+        <v>0.514</v>
       </c>
       <c r="P3" t="n">
-        <v>0.477</v>
+        <v>0.479</v>
       </c>
       <c r="Q3" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="R3" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="S3" t="n">
-        <v>0.866</v>
+        <v>0.848</v>
       </c>
       <c r="T3" t="n">
+        <v>22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>87</v>
+      </c>
+      <c r="V3" t="n">
+        <v>109</v>
+      </c>
+      <c r="W3" t="n">
+        <v>132</v>
+      </c>
+      <c r="X3" t="n">
         <v>20</v>
-      </c>
-      <c r="U3" t="n">
-        <v>83</v>
-      </c>
-      <c r="V3" t="n">
-        <v>103</v>
-      </c>
-      <c r="W3" t="n">
-        <v>129</v>
-      </c>
-      <c r="X3" t="n">
-        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB3" t="n">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4">
@@ -764,43 +764,43 @@
         <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>725</v>
+        <v>760</v>
       </c>
       <c r="G4" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H4" t="n">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="I4" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="J4" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L4" t="n">
-        <v>0.403</v>
+        <v>0.401</v>
       </c>
       <c r="M4" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O4" t="n">
-        <v>0.47</v>
+        <v>0.467</v>
       </c>
       <c r="P4" t="n">
-        <v>0.546</v>
+        <v>0.543</v>
       </c>
       <c r="Q4" t="n">
         <v>34</v>
@@ -815,28 +815,28 @@
         <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="W4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
         <v>47</v>
       </c>
       <c r="AB4" t="n">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5">
@@ -852,22 +852,22 @@
         <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="G5" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H5" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I5" t="n">
-        <v>0.653</v>
+        <v>0.648</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -879,16 +879,16 @@
         <v>0.25</v>
       </c>
       <c r="M5" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N5" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O5" t="n">
-        <v>0.668</v>
+        <v>0.662</v>
       </c>
       <c r="P5" t="n">
-        <v>0.658</v>
+        <v>0.652</v>
       </c>
       <c r="Q5" t="n">
         <v>94</v>
@@ -903,10 +903,10 @@
         <v>64</v>
       </c>
       <c r="U5" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V5" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="W5" t="n">
         <v>56</v>
@@ -918,13 +918,13 @@
         <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA5" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AB5" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6">
@@ -940,79 +940,79 @@
         <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="G6" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I6" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="J6" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L6" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="M6" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O6" t="n">
-        <v>0.436</v>
+        <v>0.431</v>
       </c>
       <c r="P6" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="Q6" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R6" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S6" t="n">
-        <v>0.875</v>
+        <v>0.883</v>
       </c>
       <c r="T6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="V6" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="W6" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7">
@@ -1028,43 +1028,43 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="G7" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I7" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="J7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L7" t="n">
-        <v>0.306</v>
+        <v>0.318</v>
       </c>
       <c r="M7" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O7" t="n">
-        <v>0.529</v>
+        <v>0.52</v>
       </c>
       <c r="P7" t="n">
-        <v>0.496</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" t="n">
         <v>21</v>
@@ -1076,13 +1076,13 @@
         <v>0.656</v>
       </c>
       <c r="T7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U7" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="V7" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="W7" t="n">
         <v>31</v>
@@ -1091,16 +1091,16 @@
         <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB7" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
@@ -1116,43 +1116,43 @@
         <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="G8" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H8" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I8" t="n">
-        <v>0.458</v>
+        <v>0.466</v>
       </c>
       <c r="J8" t="n">
         <v>11</v>
       </c>
       <c r="K8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" t="n">
-        <v>0.275</v>
+        <v>0.262</v>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O8" t="n">
-        <v>0.522</v>
+        <v>0.537</v>
       </c>
       <c r="P8" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="Q8" t="n">
         <v>28</v>
@@ -1167,28 +1167,28 @@
         <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V8" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W8" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA8" t="n">
         <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
@@ -1204,22 +1204,22 @@
         <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="G9" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H9" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I9" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1229,52 +1229,52 @@
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N9" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O9" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="P9" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="Q9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R9" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="T9" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="U9" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="V9" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="W9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
@@ -1290,22 +1290,22 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G10" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I10" t="n">
-        <v>0.442</v>
+        <v>0.446</v>
       </c>
       <c r="J10" t="n">
         <v>13</v>
@@ -1317,16 +1317,16 @@
         <v>0.351</v>
       </c>
       <c r="M10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O10" t="n">
-        <v>0.478</v>
+        <v>0.484</v>
       </c>
       <c r="P10" t="n">
-        <v>0.492</v>
+        <v>0.496</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
@@ -1347,7 +1347,7 @@
         <v>38</v>
       </c>
       <c r="W10" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
@@ -1356,13 +1356,13 @@
         <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
         <v>39</v>
       </c>
       <c r="AB10" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
@@ -1466,31 +1466,31 @@
         <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" t="n">
-        <v>0.288</v>
+        <v>0.296</v>
       </c>
       <c r="J12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" t="n">
-        <v>0.25</v>
+        <v>0.262</v>
       </c>
       <c r="M12" t="n">
         <v>7</v>
@@ -1502,43 +1502,43 @@
         <v>0.438</v>
       </c>
       <c r="P12" t="n">
-        <v>0.388</v>
+        <v>0.401</v>
       </c>
       <c r="Q12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.944</v>
       </c>
       <c r="T12" t="n">
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB12" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -1554,22 +1554,22 @@
         <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7</v>
+        <v>0.727</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -1581,37 +1581,37 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="Q13" t="n">
         <v>7</v>
       </c>
-      <c r="O13" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
+        <v>8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="T13" t="n">
         <v>5</v>
       </c>
-      <c r="R13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4</v>
-      </c>
       <c r="U13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1620,13 +1620,13 @@
         <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -1886,77 +1886,77 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>6075</v>
+        <v>6340</v>
       </c>
       <c r="G17" t="n">
-        <v>985</v>
+        <v>1027</v>
       </c>
       <c r="H17" t="n">
-        <v>2133</v>
+        <v>2221</v>
       </c>
       <c r="I17" t="n">
         <v>0.462</v>
       </c>
       <c r="J17" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="K17" t="n">
-        <v>776</v>
+        <v>808</v>
       </c>
       <c r="L17" t="n">
-        <v>0.325</v>
+        <v>0.327</v>
       </c>
       <c r="M17" t="n">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="N17" t="n">
-        <v>1357</v>
+        <v>1413</v>
       </c>
       <c r="O17" t="n">
         <v>0.54</v>
       </c>
       <c r="P17" t="n">
-        <v>0.521</v>
+        <v>0.522</v>
       </c>
       <c r="Q17" t="n">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="R17" t="n">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="S17" t="n">
-        <v>0.782</v>
+        <v>0.784</v>
       </c>
       <c r="T17" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="U17" t="n">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="V17" t="n">
-        <v>1130</v>
+        <v>1175</v>
       </c>
       <c r="W17" t="n">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="X17" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Z17" t="n">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="AA17" t="n">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="AB17" t="n">
-        <v>2637</v>
+        <v>2756</v>
       </c>
     </row>
   </sheetData>
